--- a/HW.WebForTesting.xlsx
+++ b/HW.WebForTesting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWork\6.HW.WebForTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWork\6.HW.WebForTesting\1.HW.WebForTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFEDF4-76BF-44E7-ABD1-720D0AAC0CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -3531,7 +3532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4428,7 +4429,13 @@
     <xdr:ext cx="1409700" cy="257175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4732,14 +4739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B2:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>57</v>
@@ -5248,7 +5255,7 @@
     </row>
     <row r="59" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>37</v>
@@ -5259,7 +5266,7 @@
     </row>
     <row r="60" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>46</v>
@@ -5270,7 +5277,7 @@
     </row>
     <row r="61" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>59</v>
@@ -5281,7 +5288,7 @@
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>49</v>
@@ -5292,7 +5299,7 @@
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>61</v>
@@ -5303,7 +5310,7 @@
     </row>
     <row r="64" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>48</v>
@@ -5314,7 +5321,7 @@
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>62</v>
@@ -5325,7 +5332,7 @@
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>63</v>
@@ -5336,7 +5343,7 @@
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>51</v>
@@ -5347,7 +5354,7 @@
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>64</v>
@@ -5358,7 +5365,7 @@
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>66</v>
@@ -5557,7 +5564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -9895,7 +9902,7 @@
     <mergeCell ref="A78:F78"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9903,7 +9910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -10678,7 +10685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>40</v>
       </c>
@@ -11728,7 +11735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="37">
         <v>95</v>
       </c>
@@ -12174,7 +12181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
